--- a/Boltzmann_Test.xlsx
+++ b/Boltzmann_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation\2D_15-by-15_DQN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F9E9F-AC97-4E9D-9939-5914B313A100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1A89B-16B0-4F70-BA77-A7EA5B4E51F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{F28C24A4-B3E6-4C6B-9656-C7F37A5C0F9E}"/>
   </bookViews>
@@ -410,18 +410,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182307A-63CB-40A7-96D2-F57882C13B50}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1147,795 +1150,795 @@
       </c>
       <c r="B21">
         <f>EXP((B3-$B$19)/$B$1)</f>
-        <v>0.58049729413453321</v>
+        <v>0.76190373022746993</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:P21" si="0">EXP((C3-$B$19)/$B$1)</f>
-        <v>0.68555268195297847</v>
+        <v>0.82798108791987424</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.70020831246931992</v>
+        <v>0.8367845077852003</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.6731207360227478</v>
+        <v>0.82043935548140778</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.73233175581944632</v>
+        <v>0.85576384348688528</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0.57042058821634989</v>
+        <v>0.75526193351469117</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0.65698067657026449</v>
+        <v>0.81054344520837651</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" ref="B22:P22" si="1">EXP((B4-$B$19)/$B$1)</f>
-        <v>0.73178628573696425</v>
+        <v>0.85544508049141543</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.78627137058756313</v>
+        <v>0.8867194429962405</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.89043814782709252</v>
+        <v>0.94363030251634694</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.72856736546216061</v>
+        <v>0.85356157684267908</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>0.73127449577346237</v>
+        <v>0.85514589151411025</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>0.47112468371207572</v>
+        <v>0.68638522981783034</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>0.43468581799957778</v>
+        <v>0.65930707413130174</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" ref="B23:P23" si="2">EXP((B5-$B$19)/$B$1)</f>
-        <v>0.59711798765608104</v>
+        <v>0.77273409893447886</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>0.98204327106337264</v>
+        <v>0.99098096402674285</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>0.78312129247966167</v>
+        <v>0.88494140624092266</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0.78080225761842259</v>
+        <v>0.88363015884385854</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.92719076131050826</v>
+        <v>0.96290745210041251</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>0.66704970070871406</v>
+        <v>0.81673110673508331</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.62398557853998404</v>
+        <v>0.78992757803483737</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" ref="B24:P24" si="3">EXP((B6-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P24">
         <f t="shared" si="3"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" ref="B25:P25" si="4">EXP((B7-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="shared" ref="B26:P26" si="5">EXP((B8-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P26">
         <f t="shared" si="5"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="shared" ref="B27:P27" si="6">EXP((B9-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D27">
         <f t="shared" si="6"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="shared" ref="B28:P28" si="7">EXP((B10-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D28">
         <f t="shared" si="7"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P28">
         <f t="shared" si="7"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:P29" si="8">EXP((B11-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C29">
         <f t="shared" si="8"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D29">
         <f t="shared" si="8"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M29">
         <f t="shared" si="8"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N29">
         <f t="shared" si="8"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P29">
         <f t="shared" si="8"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="shared" ref="B30:P30" si="9">EXP((B12-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C30">
         <f t="shared" si="9"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D30">
         <f t="shared" si="9"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O30">
         <f t="shared" si="9"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P30">
         <f t="shared" si="9"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="shared" ref="B31:P31" si="10">EXP((B13-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C31">
         <f t="shared" si="10"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D31">
         <f t="shared" si="10"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M31">
         <f t="shared" si="10"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O31">
         <f t="shared" si="10"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P31">
         <f t="shared" si="10"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="shared" ref="B32:P32" si="11">EXP((B14-$B$19)/$B$1)</f>
-        <v>0.61138012440714462</v>
+        <v>0.78190800252148884</v>
       </c>
       <c r="C32">
         <f t="shared" si="11"/>
-        <v>0.93620194528569733</v>
+        <v>0.96757529179165036</v>
       </c>
       <c r="D32">
         <f t="shared" si="11"/>
-        <v>0.81969420514325453</v>
+        <v>0.90536965110569867</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="G32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="I32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="J32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="L32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="M32">
         <f t="shared" si="11"/>
-        <v>0.74601819600573227</v>
+        <v>0.86372344879928564</v>
       </c>
       <c r="N32">
         <f t="shared" si="11"/>
-        <v>0.889162647769005</v>
+        <v>0.94295421297590321</v>
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
-        <v>0.60286908137105932</v>
+        <v>0.77644644462516488</v>
       </c>
       <c r="P32">
         <f t="shared" si="11"/>
-        <v>0.62800996923500529</v>
+        <v>0.79247080024124883</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="12">EXP((B15-$B$19)/$B$1)</f>
-        <v>0.51150180132550693</v>
+        <v>0.71519354116596079</v>
       </c>
       <c r="C33">
         <f t="shared" si="12"/>
-        <v>0.95517432958291681</v>
+        <v>0.9773302049885273</v>
       </c>
       <c r="D33">
         <f t="shared" si="12"/>
-        <v>0.85736752041101938</v>
+        <v>0.92594142385521305</v>
       </c>
       <c r="E33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="F33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="G33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="H33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="I33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="J33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="K33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="L33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="M33">
         <f t="shared" si="12"/>
-        <v>0.77360950635511005</v>
+        <v>0.87955074120548049</v>
       </c>
       <c r="N33">
         <f t="shared" si="12"/>
@@ -1943,135 +1946,135 @@
       </c>
       <c r="O33">
         <f t="shared" si="12"/>
-        <v>0.69345912929465958</v>
+        <v>0.83274193439183763</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
-        <v>0.67399816656868405</v>
+        <v>0.82097391345199522</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="shared" ref="B34:P34" si="13">EXP((B16-$B$19)/$B$1)</f>
-        <v>0.5925398330700602</v>
+        <v>0.76976608984162209</v>
       </c>
       <c r="C34">
         <f t="shared" si="13"/>
-        <v>0.90247892184560574</v>
+        <v>0.94998890616975407</v>
       </c>
       <c r="D34">
         <f t="shared" si="13"/>
-        <v>0.62669862652702268</v>
+        <v>0.79164299183850717</v>
       </c>
       <c r="E34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="F34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="G34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="H34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="I34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="J34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="K34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="L34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="M34">
         <f t="shared" si="13"/>
-        <v>0.67217766823720049</v>
+        <v>0.81986442064356013</v>
       </c>
       <c r="N34">
         <f t="shared" si="13"/>
-        <v>0.76163286258762042</v>
+        <v>0.87271579714568037</v>
       </c>
       <c r="O34">
         <f t="shared" si="13"/>
-        <v>0.57657822059897701</v>
+        <v>0.7593274791544008</v>
       </c>
       <c r="P34">
         <f t="shared" si="13"/>
-        <v>0.63138647687444882</v>
+        <v>0.79459831164837547</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="shared" ref="B35:P35" si="14">EXP((B17-$B$19)/$B$1)</f>
-        <v>0.51601282009149574</v>
+        <v>0.71834032330887265</v>
       </c>
       <c r="C35">
         <f t="shared" si="14"/>
-        <v>0.72941369957381696</v>
+        <v>0.85405719924008427</v>
       </c>
       <c r="D35">
         <f t="shared" si="14"/>
-        <v>0.6291755856620439</v>
+        <v>0.79320589109136341</v>
       </c>
       <c r="E35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="F35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="G35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="H35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="I35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="J35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="K35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="L35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="M35">
         <f t="shared" si="14"/>
-        <v>0.61992845534776841</v>
+        <v>0.7873553551908874</v>
       </c>
       <c r="N35">
         <f t="shared" si="14"/>
-        <v>0.69028336425453873</v>
+        <v>0.83083293402135838</v>
       </c>
       <c r="O35">
         <f t="shared" si="14"/>
-        <v>0.56630885184209967</v>
+        <v>0.752534950578443</v>
       </c>
       <c r="P35">
         <f t="shared" si="14"/>
-        <v>0.70818952244538858</v>
+        <v>0.84153997079484499</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2079,932 +2082,932 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <f>B21/SUM($B$21:$P$36)</f>
-        <v>3.5348440994589173E-3</v>
+        <f t="shared" ref="B37:P37" si="15">B21/SUM($B$21:$P$36)</f>
+        <v>3.9720642696349168E-3</v>
       </c>
       <c r="C37">
-        <f>C21/SUM($B$21:$P$36)</f>
-        <v>4.1745618406071406E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.316548094964825E-3</v>
       </c>
       <c r="D37">
-        <f>D21/SUM($B$21:$P$36)</f>
-        <v>4.2638049250762538E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.3624433283261524E-3</v>
       </c>
       <c r="E37">
-        <f>E21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="F37">
-        <f>F21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="G37">
-        <f>G21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="H37">
-        <f>H21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="I37">
-        <f>I21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="J37">
-        <f>J21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="K37">
-        <f>K21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="L37">
-        <f>L21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="M37">
-        <f>M21/SUM($B$21:$P$36)</f>
-        <v>4.0988595226802574E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2772304689164056E-3</v>
       </c>
       <c r="N37">
-        <f>N21/SUM($B$21:$P$36)</f>
-        <v>4.4594154220205873E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.4613890851339872E-3</v>
       </c>
       <c r="O37">
-        <f>O21/SUM($B$21:$P$36)</f>
-        <v>3.4734836334984714E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.9374383157744063E-3</v>
       </c>
       <c r="P37">
-        <f>P21/SUM($B$21:$P$36)</f>
-        <v>4.0005772490211058E-3</v>
+        <f t="shared" si="15"/>
+        <v>4.2256397100691092E-3</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38">
-        <f>B22/SUM($B$21:$P$36)</f>
-        <v>4.4560938704440757E-3</v>
+        <f t="shared" ref="B38:P38" si="16">B22/SUM($B$21:$P$36)</f>
+        <v>4.459727264808722E-3</v>
       </c>
       <c r="C38">
-        <f>C22/SUM($B$21:$P$36)</f>
-        <v>4.7878719556112099E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.6227711940252615E-3</v>
       </c>
       <c r="D38">
-        <f>D22/SUM($B$21:$P$36)</f>
-        <v>5.4221786467970375E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.9194669348198864E-3</v>
       </c>
       <c r="E38">
-        <f>E22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="F38">
-        <f>F22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="G38">
-        <f>G22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="H38">
-        <f>H22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="I38">
-        <f>I22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="J38">
-        <f>J22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="K38">
-        <f>K22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="L38">
-        <f>L22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="M38">
-        <f>M22/SUM($B$21:$P$36)</f>
-        <v>4.4364927776310899E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.449907917234929E-3</v>
       </c>
       <c r="N38">
-        <f>N22/SUM($B$21:$P$36)</f>
-        <v>4.452977408488221E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.4581674905229763E-3</v>
       </c>
       <c r="O38">
-        <f>O22/SUM($B$21:$P$36)</f>
-        <v>2.8688373316398709E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5783605439897049E-3</v>
       </c>
       <c r="P38">
-        <f>P22/SUM($B$21:$P$36)</f>
-        <v>2.6469487703041348E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4371928735571684E-3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39">
-        <f>B23/SUM($B$21:$P$36)</f>
-        <v>3.6360531163091188E-3</v>
+        <f t="shared" ref="B39:P39" si="17">B23/SUM($B$21:$P$36)</f>
+        <v>4.0285266793349435E-3</v>
       </c>
       <c r="C39">
-        <f>C23/SUM($B$21:$P$36)</f>
-        <v>5.9799931837876737E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.1663220994124905E-3</v>
       </c>
       <c r="D39">
-        <f>D23/SUM($B$21:$P$36)</f>
-        <v>4.7686900660054172E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.613501681374645E-3</v>
       </c>
       <c r="E39">
-        <f>E23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="F39">
-        <f>F23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="G39">
-        <f>G23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="H39">
-        <f>H23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="I39">
-        <f>I23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="J39">
-        <f>J23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="K39">
-        <f>K23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="L39">
-        <f>L23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="M39">
-        <f>M23/SUM($B$21:$P$36)</f>
-        <v>4.7545686794313209E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.6066657010166339E-3</v>
       </c>
       <c r="N39">
-        <f>N23/SUM($B$21:$P$36)</f>
-        <v>5.6459777242849644E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.0199652970741495E-3</v>
       </c>
       <c r="O39">
-        <f>O23/SUM($B$21:$P$36)</f>
-        <v>4.0618909380300671E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.2578981021568988E-3</v>
       </c>
       <c r="P39">
-        <f>P23/SUM($B$21:$P$36)</f>
-        <v>3.7996589523091578E-3</v>
+        <f t="shared" si="17"/>
+        <v>4.11816215596512E-3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40">
-        <f>B24/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B40:P40" si="18">B24/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C40">
-        <f>C24/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="18"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D40">
-        <f>D24/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E40">
-        <f>E24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F40">
-        <f>F24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G40">
-        <f>G24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H40">
-        <f>H24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I40">
-        <f>I24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J40">
-        <f>J24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K40">
-        <f>K24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L40">
-        <f>L24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M40">
-        <f>M24/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N40">
-        <f>N24/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O40">
-        <f>O24/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P40">
-        <f>P24/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41">
-        <f>B25/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B41:P41" si="19">B25/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C41">
-        <f>C25/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="19"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D41">
-        <f>D25/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E41">
-        <f>E25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F41">
-        <f>F25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G41">
-        <f>G25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H41">
-        <f>H25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I41">
-        <f>I25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J41">
-        <f>J25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K41">
-        <f>K25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L41">
-        <f>L25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M41">
-        <f>M25/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N41">
-        <f>N25/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O41">
-        <f>O25/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P41">
-        <f>P25/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="19"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42">
-        <f>B26/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B42:P42" si="20">B26/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C42">
-        <f>C26/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="20"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D42">
-        <f>D26/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E42">
-        <f>E26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F42">
-        <f>F26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G42">
-        <f>G26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H42">
-        <f>H26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I42">
-        <f>I26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J42">
-        <f>J26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K42">
-        <f>K26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L42">
-        <f>L26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M42">
-        <f>M26/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N42">
-        <f>N26/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O42">
-        <f>O26/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P42">
-        <f>P26/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="20"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43">
-        <f>B27/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B43:P43" si="21">B27/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C43">
-        <f>C27/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="21"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D43">
-        <f>D27/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E43">
-        <f>E27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F43">
-        <f>F27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G43">
-        <f>G27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H43">
-        <f>H27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I43">
-        <f>I27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J43">
-        <f>J27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K43">
-        <f>K27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L43">
-        <f>L27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M43">
-        <f>M27/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N43">
-        <f>N27/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O43">
-        <f>O27/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P43">
-        <f>P27/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="21"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44">
-        <f>B28/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B44:P44" si="22">B28/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C44">
-        <f>C28/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="22"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D44">
-        <f>D28/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E44">
-        <f>E28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F44">
-        <f>F28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G44">
-        <f>G28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H44">
-        <f>H28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I44">
-        <f>I28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J44">
-        <f>J28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K44">
-        <f>K28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L44">
-        <f>L28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M44">
-        <f>M28/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N44">
-        <f>N28/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O44">
-        <f>O28/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P44">
-        <f>P28/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="22"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45">
-        <f>B29/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B45:P45" si="23">B29/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C45">
-        <f>C29/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="23"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D45">
-        <f>D29/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E45">
-        <f>E29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F45">
-        <f>F29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G45">
-        <f>G29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H45">
-        <f>H29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I45">
-        <f>I29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J45">
-        <f>J29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K45">
-        <f>K29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L45">
-        <f>L29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M45">
-        <f>M29/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N45">
-        <f>N29/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O45">
-        <f>O29/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P45">
-        <f>P29/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46">
-        <f>B30/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B46:P46" si="24">B30/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C46">
-        <f>C30/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="24"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D46">
-        <f>D30/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E46">
-        <f>E30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F46">
-        <f>F30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G46">
-        <f>G30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H46">
-        <f>H30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I46">
-        <f>I30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J46">
-        <f>J30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K46">
-        <f>K30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L46">
-        <f>L30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M46">
-        <f>M30/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N46">
-        <f>N30/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O46">
-        <f>O30/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P46">
-        <f>P30/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="24"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47">
-        <f>B31/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B47:P47" si="25">B31/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C47">
-        <f>C31/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="25"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D47">
-        <f>D31/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E47">
-        <f>E31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F47">
-        <f>F31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G47">
-        <f>G31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H47">
-        <f>H31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I47">
-        <f>I31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J47">
-        <f>J31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K47">
-        <f>K31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L47">
-        <f>L31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M47">
-        <f>M31/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N47">
-        <f>N31/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O47">
-        <f>O31/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P47">
-        <f>P31/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B48">
-        <f>B32/SUM($B$21:$P$36)</f>
-        <v>3.722900084330454E-3</v>
+        <f t="shared" ref="B48:P48" si="26">B32/SUM($B$21:$P$36)</f>
+        <v>4.0763533708254272E-3</v>
       </c>
       <c r="C48">
-        <f>C32/SUM($B$21:$P$36)</f>
-        <v>5.7008498672315149E-3</v>
+        <f t="shared" si="26"/>
+        <v>5.0443003390464652E-3</v>
       </c>
       <c r="D48">
-        <f>D32/SUM($B$21:$P$36)</f>
-        <v>4.9913948845036167E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.7200010963263268E-3</v>
       </c>
       <c r="E48">
-        <f>E32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="F48">
-        <f>F32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="G48">
-        <f>G32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="H48">
-        <f>H32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="I48">
-        <f>I32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="J48">
-        <f>J32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="K48">
-        <f>K32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="L48">
-        <f>L32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="M48">
-        <f>M32/SUM($B$21:$P$36)</f>
-        <v>4.542756779205067E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.5028852251415216E-3</v>
       </c>
       <c r="N48">
-        <f>N32/SUM($B$21:$P$36)</f>
-        <v>5.4144116961157042E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.9159422492196878E-3</v>
       </c>
       <c r="O48">
-        <f>O32/SUM($B$21:$P$36)</f>
-        <v>3.6710734684954889E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.0478804048641581E-3</v>
       </c>
       <c r="P48">
-        <f>P32/SUM($B$21:$P$36)</f>
-        <v>3.8241648265758452E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.1314208416166698E-3</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49">
-        <f>B33/SUM($B$21:$P$36)</f>
-        <v>3.1147072390298584E-3</v>
+        <f t="shared" ref="B49:P49" si="27">B33/SUM($B$21:$P$36)</f>
+        <v>3.7285481065840813E-3</v>
       </c>
       <c r="C49">
-        <f>C33/SUM($B$21:$P$36)</f>
-        <v>5.8163791235490312E-3</v>
+        <f t="shared" si="27"/>
+        <v>5.0951560319975114E-3</v>
       </c>
       <c r="D49">
-        <f>D33/SUM($B$21:$P$36)</f>
-        <v>5.2208004261433188E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.8272487711434591E-3</v>
       </c>
       <c r="E49">
-        <f>E33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="F49">
-        <f>F33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="G49">
-        <f>G33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="H49">
-        <f>H33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="I49">
-        <f>I33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="J49">
-        <f>J33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="K49">
-        <f>K33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="L49">
-        <f>L33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="M49">
-        <f>M33/SUM($B$21:$P$36)</f>
-        <v>4.7107695874822313E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.5853983041009086E-3</v>
       </c>
       <c r="N49">
-        <f>N33/SUM($B$21:$P$36)</f>
-        <v>6.0893377715550544E-3</v>
+        <f t="shared" si="27"/>
+        <v>5.2133414131586391E-3</v>
       </c>
       <c r="O49">
-        <f>O33/SUM($B$21:$P$36)</f>
-        <v>4.222706869043651E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.3413680130388018E-3</v>
       </c>
       <c r="P49">
-        <f>P33/SUM($B$21:$P$36)</f>
-        <v>4.1042024936455432E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.2800173021222028E-3</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50">
-        <f>B34/SUM($B$21:$P$36)</f>
-        <v>3.6081751866644442E-3</v>
+        <f t="shared" ref="B50:P50" si="28">B34/SUM($B$21:$P$36)</f>
+        <v>4.0130534346165224E-3</v>
       </c>
       <c r="C50">
-        <f>C34/SUM($B$21:$P$36)</f>
-        <v>5.4954989868267285E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.9526165065760554E-3</v>
       </c>
       <c r="D50">
-        <f>D34/SUM($B$21:$P$36)</f>
-        <v>3.8161796178926735E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.1271051937884964E-3</v>
       </c>
       <c r="E50">
-        <f>E34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="F50">
-        <f>F34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="G50">
-        <f>G34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="H50">
-        <f>H34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="I50">
-        <f>I34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="J50">
-        <f>J34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="K50">
-        <f>K34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="L50">
-        <f>L34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="M50">
-        <f>M34/SUM($B$21:$P$36)</f>
-        <v>4.093116864392587E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2742331373163871E-3</v>
       </c>
       <c r="N50">
-        <f>N34/SUM($B$21:$P$36)</f>
-        <v>4.6378397582123978E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.5497654071773299E-3</v>
       </c>
       <c r="O50">
-        <f>O34/SUM($B$21:$P$36)</f>
-        <v>3.510979536949353E-3</v>
+        <f t="shared" si="28"/>
+        <v>3.9586333932249912E-3</v>
       </c>
       <c r="P50">
-        <f>P34/SUM($B$21:$P$36)</f>
-        <v>3.8447255220806528E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.1425122849424109E-3</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51">
-        <f>B35/SUM($B$21:$P$36)</f>
-        <v>3.1421763559897876E-3</v>
+        <f t="shared" ref="B51:P51" si="29">B35/SUM($B$21:$P$36)</f>
+        <v>3.7449533562479119E-3</v>
       </c>
       <c r="C51">
-        <f>C35/SUM($B$21:$P$36)</f>
-        <v>4.4416463919045544E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.4524917660046107E-3</v>
       </c>
       <c r="D51">
-        <f>D35/SUM($B$21:$P$36)</f>
-        <v>3.8312626587121566E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.135253121188006E-3</v>
       </c>
       <c r="E51">
-        <f>E35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="F51">
-        <f>F35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="G51">
-        <f>G35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="H51">
-        <f>H35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="I51">
-        <f>I35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="J51">
-        <f>J35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="K51">
-        <f>K35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="L51">
-        <f>L35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="M51">
-        <f>M35/SUM($B$21:$P$36)</f>
-        <v>3.774953758810947E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.1047522800888832E-3</v>
       </c>
       <c r="N51">
-        <f>N35/SUM($B$21:$P$36)</f>
-        <v>4.2033685630312586E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.3314157423496469E-3</v>
       </c>
       <c r="O51">
-        <f>O35/SUM($B$21:$P$36)</f>
-        <v>3.4484458818880726E-3</v>
+        <f t="shared" si="29"/>
+        <v>3.9232216226998866E-3</v>
       </c>
       <c r="P51">
-        <f>P35/SUM($B$21:$P$36)</f>
-        <v>4.3124052084462404E-3</v>
+        <f t="shared" si="29"/>
+        <v>4.3872351805730771E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Boltzmann_Test.xlsx
+++ b/Boltzmann_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation\2D_15-by-15_DQN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1A89B-16B0-4F70-BA77-A7EA5B4E51F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C390BD7C-4311-49BF-AFCF-9A0E0EE6792D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{F28C24A4-B3E6-4C6B-9656-C7F37A5C0F9E}"/>
   </bookViews>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182307A-63CB-40A7-96D2-F57882C13B50}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1150,795 +1150,795 @@
       </c>
       <c r="B21">
         <f>EXP((B3-$B$19)/$B$1)</f>
-        <v>0.76190373022746993</v>
+        <v>0.7118280945564468</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:P21" si="0">EXP((C3-$B$19)/$B$1)</f>
-        <v>0.82798108791987424</v>
+        <v>0.78981526162015114</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.8367845077852003</v>
+        <v>0.80032620805673294</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.82043935548140778</v>
+        <v>0.78083290386012483</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.85576384348688528</v>
+        <v>0.82308069701118647</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0.75526193351469117</v>
+        <v>0.70407997908949871</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0.81054344520837651</v>
+        <v>0.76907797219912077</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" ref="B22:P22" si="1">EXP((B4-$B$19)/$B$1)</f>
-        <v>0.85544508049141543</v>
+        <v>0.82269747877112609</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.8867194429962405</v>
+        <v>0.8604641665087448</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.94363030251634694</v>
+        <v>0.93004154406784556</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.85356157684267908</v>
+        <v>0.82043385158018101</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>0.85514589151411025</v>
+        <v>0.82233782497647945</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>0.68638522981783034</v>
+        <v>0.62475524639380109</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>0.65930707413130174</v>
+        <v>0.59410016021150036</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" ref="B23:P23" si="2">EXP((B5-$B$19)/$B$1)</f>
-        <v>0.77273409893447886</v>
+        <v>0.72449867629552323</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>0.99098096402674285</v>
+        <v>0.98873894365000359</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>0.88494140624092266</v>
+        <v>0.85830796978483248</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0.88363015884385854</v>
+        <v>0.85671853466352632</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.96290745210041251</v>
+        <v>0.95385131934277667</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>0.81673110673508331</v>
+        <v>0.77642385635476963</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.78992757803483737</v>
+        <v>0.74470470085490537</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" ref="B24:P24" si="3">EXP((B6-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P24">
         <f t="shared" si="3"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" ref="B25:P25" si="4">EXP((B7-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="shared" ref="B26:P26" si="5">EXP((B8-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P26">
         <f t="shared" si="5"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="shared" ref="B27:P27" si="6">EXP((B9-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D27">
         <f t="shared" si="6"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="shared" ref="B28:P28" si="7">EXP((B10-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D28">
         <f t="shared" si="7"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P28">
         <f t="shared" si="7"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:P29" si="8">EXP((B11-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C29">
         <f t="shared" si="8"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D29">
         <f t="shared" si="8"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M29">
         <f t="shared" si="8"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N29">
         <f t="shared" si="8"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P29">
         <f t="shared" si="8"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="shared" ref="B30:P30" si="9">EXP((B12-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C30">
         <f t="shared" si="9"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D30">
         <f t="shared" si="9"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O30">
         <f t="shared" si="9"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P30">
         <f t="shared" si="9"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="shared" ref="B31:P31" si="10">EXP((B13-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C31">
         <f t="shared" si="10"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D31">
         <f t="shared" si="10"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M31">
         <f t="shared" si="10"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O31">
         <f t="shared" si="10"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P31">
         <f t="shared" si="10"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="shared" ref="B32:P32" si="11">EXP((B14-$B$19)/$B$1)</f>
-        <v>0.78190800252148884</v>
+        <v>0.7352661499864529</v>
       </c>
       <c r="C32">
         <f t="shared" si="11"/>
-        <v>0.96757529179165036</v>
+        <v>0.95963474088427358</v>
       </c>
       <c r="D32">
         <f t="shared" si="11"/>
-        <v>0.90536965110569867</v>
+        <v>0.88314581552162053</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="G32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="I32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="J32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="L32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="M32">
         <f t="shared" si="11"/>
-        <v>0.86372344879928564</v>
+        <v>0.83266131445674019</v>
       </c>
       <c r="N32">
         <f t="shared" si="11"/>
-        <v>0.94295421297590321</v>
+        <v>0.92920867679712227</v>
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
-        <v>0.77644644462516488</v>
+        <v>0.72885205406529596</v>
       </c>
       <c r="P32">
         <f t="shared" si="11"/>
-        <v>0.79247080024124883</v>
+        <v>0.74770293636391716</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="12">EXP((B15-$B$19)/$B$1)</f>
-        <v>0.71519354116596079</v>
+        <v>0.65770248032952217</v>
       </c>
       <c r="C33">
         <f t="shared" si="12"/>
-        <v>0.9773302049885273</v>
+        <v>0.97174351584060492</v>
       </c>
       <c r="D33">
         <f t="shared" si="12"/>
-        <v>0.92594142385521305</v>
+        <v>0.90830016266133329</v>
       </c>
       <c r="E33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="F33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="G33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="H33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="I33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="J33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="K33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="L33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="M33">
         <f t="shared" si="12"/>
-        <v>0.87955074120548049</v>
+        <v>0.85177742117532929</v>
       </c>
       <c r="N33">
         <f t="shared" si="12"/>
@@ -1946,135 +1946,135 @@
       </c>
       <c r="O33">
         <f t="shared" si="12"/>
-        <v>0.83274193439183763</v>
+        <v>0.79549607968476255</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
-        <v>0.82097391345199522</v>
+        <v>0.78146889608617087</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="shared" ref="B34:P34" si="13">EXP((B16-$B$19)/$B$1)</f>
-        <v>0.76976608984162209</v>
+        <v>0.72102192201972648</v>
       </c>
       <c r="C34">
         <f t="shared" si="13"/>
-        <v>0.94998890616975407</v>
+        <v>0.93788192707796403</v>
       </c>
       <c r="D34">
         <f t="shared" si="13"/>
-        <v>0.79164299183850717</v>
+        <v>0.74672675854639203</v>
       </c>
       <c r="E34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="F34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="G34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="H34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="I34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="J34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="K34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="L34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="M34">
         <f t="shared" si="13"/>
-        <v>0.81986442064356013</v>
+        <v>0.78014898873439353</v>
       </c>
       <c r="N34">
         <f t="shared" si="13"/>
-        <v>0.87271579714568037</v>
+        <v>0.84351157509457941</v>
       </c>
       <c r="O34">
         <f t="shared" si="13"/>
-        <v>0.7593274791544008</v>
+        <v>0.70882070652143636</v>
       </c>
       <c r="P34">
         <f t="shared" si="13"/>
-        <v>0.79459831164837547</v>
+        <v>0.75021293419883384</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="shared" ref="B35:P35" si="14">EXP((B17-$B$19)/$B$1)</f>
-        <v>0.71834032330887265</v>
+        <v>0.66132175142887184</v>
       </c>
       <c r="C35">
         <f t="shared" si="14"/>
-        <v>0.85405719924008427</v>
+        <v>0.82102937818404953</v>
       </c>
       <c r="D35">
         <f t="shared" si="14"/>
-        <v>0.79320589109136341</v>
+        <v>0.74856999244550482</v>
       </c>
       <c r="E35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="F35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="G35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="H35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="I35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="J35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="K35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="L35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="M35">
         <f t="shared" si="14"/>
-        <v>0.7873553551908874</v>
+        <v>0.74167472986853145</v>
       </c>
       <c r="N35">
         <f t="shared" si="14"/>
-        <v>0.83083293402135838</v>
+        <v>0.79321721207012552</v>
       </c>
       <c r="O35">
         <f t="shared" si="14"/>
-        <v>0.752534950578443</v>
+        <v>0.70090368577506446</v>
       </c>
       <c r="P35">
         <f t="shared" si="14"/>
-        <v>0.84153997079484499</v>
+        <v>0.80601557827692871</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2083,931 +2083,931 @@
       </c>
       <c r="B37">
         <f t="shared" ref="B37:P37" si="15">B21/SUM($B$21:$P$36)</f>
-        <v>3.9720642696349168E-3</v>
+        <v>3.8594602762313883E-3</v>
       </c>
       <c r="C37">
         <f t="shared" si="15"/>
-        <v>4.316548094964825E-3</v>
+        <v>4.2822988458803418E-3</v>
       </c>
       <c r="D37">
         <f t="shared" si="15"/>
-        <v>4.3624433283261524E-3</v>
+        <v>4.3392881394300163E-3</v>
       </c>
       <c r="E37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="F37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="G37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="H37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="I37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="K37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="L37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="M37">
         <f t="shared" si="15"/>
-        <v>4.2772304689164056E-3</v>
+        <v>4.2335974062675625E-3</v>
       </c>
       <c r="N37">
         <f t="shared" si="15"/>
-        <v>4.4613890851339872E-3</v>
+        <v>4.4626606880793949E-3</v>
       </c>
       <c r="O37">
         <f t="shared" si="15"/>
-        <v>3.9374383157744063E-3</v>
+        <v>3.8174507740931316E-3</v>
       </c>
       <c r="P37">
         <f t="shared" si="15"/>
-        <v>4.2256397100691092E-3</v>
+        <v>4.1698633500503388E-3</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38">
         <f t="shared" ref="B38:P38" si="16">B22/SUM($B$21:$P$36)</f>
-        <v>4.459727264808722E-3</v>
+        <v>4.460582917356448E-3</v>
       </c>
       <c r="C38">
         <f t="shared" si="16"/>
-        <v>4.6227711940252615E-3</v>
+        <v>4.6653500966836415E-3</v>
       </c>
       <c r="D38">
         <f t="shared" si="16"/>
-        <v>4.9194669348198864E-3</v>
+        <v>5.0425916341661284E-3</v>
       </c>
       <c r="E38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="F38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="G38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="H38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="I38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="J38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="K38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="L38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="M38">
         <f t="shared" si="16"/>
-        <v>4.449907917234929E-3</v>
+        <v>4.4483097585833404E-3</v>
       </c>
       <c r="N38">
         <f t="shared" si="16"/>
-        <v>4.4581674905229763E-3</v>
+        <v>4.4586329106845431E-3</v>
       </c>
       <c r="O38">
         <f t="shared" si="16"/>
-        <v>3.5783605439897049E-3</v>
+        <v>3.3873600582265623E-3</v>
       </c>
       <c r="P38">
         <f t="shared" si="16"/>
-        <v>3.4371928735571684E-3</v>
+        <v>3.2211512666801122E-3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39">
         <f t="shared" ref="B39:P39" si="17">B23/SUM($B$21:$P$36)</f>
-        <v>4.0285266793349435E-3</v>
+        <v>3.9281588950027925E-3</v>
       </c>
       <c r="C39">
         <f t="shared" si="17"/>
-        <v>5.1663220994124905E-3</v>
+        <v>5.3608430262337328E-3</v>
       </c>
       <c r="D39">
         <f t="shared" si="17"/>
-        <v>4.613501681374645E-3</v>
+        <v>4.6536594150888592E-3</v>
       </c>
       <c r="E39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="F39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="G39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="H39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="I39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="J39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="K39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="L39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="M39">
         <f t="shared" si="17"/>
-        <v>4.6066657010166339E-3</v>
+        <v>4.6450416578533143E-3</v>
       </c>
       <c r="N39">
         <f t="shared" si="17"/>
-        <v>5.0199652970741495E-3</v>
+        <v>5.1716858390202548E-3</v>
       </c>
       <c r="O39">
         <f t="shared" si="17"/>
-        <v>4.2578981021568988E-3</v>
+        <v>4.2096919945072428E-3</v>
       </c>
       <c r="P39">
         <f t="shared" si="17"/>
-        <v>4.11816215596512E-3</v>
+        <v>4.0377139262299383E-3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40">
         <f t="shared" ref="B40:P40" si="18">B24/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C40">
         <f t="shared" si="18"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D40">
         <f t="shared" si="18"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M40">
         <f t="shared" si="18"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N40">
         <f t="shared" si="18"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O40">
         <f t="shared" si="18"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P40">
         <f t="shared" si="18"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41">
         <f t="shared" ref="B41:P41" si="19">B25/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C41">
         <f t="shared" si="19"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D41">
         <f t="shared" si="19"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M41">
         <f t="shared" si="19"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N41">
         <f t="shared" si="19"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O41">
         <f t="shared" si="19"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P41">
         <f t="shared" si="19"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42">
         <f t="shared" ref="B42:P42" si="20">B26/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C42">
         <f t="shared" si="20"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D42">
         <f t="shared" si="20"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M42">
         <f t="shared" si="20"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N42">
         <f t="shared" si="20"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O42">
         <f t="shared" si="20"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P42">
         <f t="shared" si="20"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43">
         <f t="shared" ref="B43:P43" si="21">B27/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C43">
         <f t="shared" si="21"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D43">
         <f t="shared" si="21"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M43">
         <f t="shared" si="21"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N43">
         <f t="shared" si="21"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O43">
         <f t="shared" si="21"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P43">
         <f t="shared" si="21"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44">
         <f t="shared" ref="B44:P44" si="22">B28/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C44">
         <f t="shared" si="22"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D44">
         <f t="shared" si="22"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M44">
         <f t="shared" si="22"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N44">
         <f t="shared" si="22"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O44">
         <f t="shared" si="22"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P44">
         <f t="shared" si="22"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45">
         <f t="shared" ref="B45:P45" si="23">B29/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C45">
         <f t="shared" si="23"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D45">
         <f t="shared" si="23"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M45">
         <f t="shared" si="23"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N45">
         <f t="shared" si="23"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O45">
         <f t="shared" si="23"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P45">
         <f t="shared" si="23"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46">
         <f t="shared" ref="B46:P46" si="24">B30/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C46">
         <f t="shared" si="24"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D46">
         <f t="shared" si="24"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M46">
         <f t="shared" si="24"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N46">
         <f t="shared" si="24"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O46">
         <f t="shared" si="24"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P46">
         <f t="shared" si="24"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="shared" ref="B47:P47" si="25">B31/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C47">
         <f t="shared" si="25"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D47">
         <f t="shared" si="25"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M47">
         <f t="shared" si="25"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N47">
         <f t="shared" si="25"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O47">
         <f t="shared" si="25"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P47">
         <f t="shared" si="25"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="shared" ref="B48:P48" si="26">B32/SUM($B$21:$P$36)</f>
-        <v>4.0763533708254272E-3</v>
+        <v>3.9865390535035669E-3</v>
       </c>
       <c r="C48">
         <f t="shared" si="26"/>
-        <v>5.0443003390464652E-3</v>
+        <v>5.2030429684603577E-3</v>
       </c>
       <c r="D48">
         <f t="shared" si="26"/>
-        <v>4.7200010963263268E-3</v>
+        <v>4.7883277145018364E-3</v>
       </c>
       <c r="E48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="F48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="G48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="H48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="I48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="J48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="K48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="L48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="M48">
         <f t="shared" si="26"/>
-        <v>4.5028852251415216E-3</v>
+        <v>4.5146058314864202E-3</v>
       </c>
       <c r="N48">
         <f t="shared" si="26"/>
-        <v>4.9159422492196878E-3</v>
+        <v>5.0380759116604957E-3</v>
       </c>
       <c r="O48">
         <f t="shared" si="26"/>
-        <v>4.0478804048641581E-3</v>
+        <v>3.9517624710604868E-3</v>
       </c>
       <c r="P48">
         <f t="shared" si="26"/>
-        <v>4.1314208416166698E-3</v>
+        <v>4.0539700573580971E-3</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49">
         <f t="shared" ref="B49:P49" si="27">B33/SUM($B$21:$P$36)</f>
-        <v>3.7285481065840813E-3</v>
+        <v>3.5659966441649875E-3</v>
       </c>
       <c r="C49">
         <f t="shared" si="27"/>
-        <v>5.0951560319975114E-3</v>
+        <v>5.2686955274070611E-3</v>
       </c>
       <c r="D49">
         <f t="shared" si="27"/>
-        <v>4.8272487711434591E-3</v>
+        <v>4.9247120526625127E-3</v>
       </c>
       <c r="E49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="F49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="G49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="H49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="J49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="K49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="L49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="M49">
         <f t="shared" si="27"/>
-        <v>4.5853983041009086E-3</v>
+        <v>4.6182514378916668E-3</v>
       </c>
       <c r="N49">
         <f t="shared" si="27"/>
-        <v>5.2133414131586391E-3</v>
+        <v>5.4218993402280488E-3</v>
       </c>
       <c r="O49">
         <f t="shared" si="27"/>
-        <v>4.3413680130388018E-3</v>
+        <v>4.3130996695968137E-3</v>
       </c>
       <c r="P49">
         <f t="shared" si="27"/>
-        <v>4.2800173021222028E-3</v>
+        <v>4.2370456920983518E-3</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50">
         <f t="shared" ref="B50:P50" si="28">B34/SUM($B$21:$P$36)</f>
-        <v>4.0130534346165224E-3</v>
+        <v>3.9093082832887148E-3</v>
       </c>
       <c r="C50">
         <f t="shared" si="28"/>
-        <v>4.9526165065760554E-3</v>
+        <v>5.0851014016358243E-3</v>
       </c>
       <c r="D50">
         <f t="shared" si="28"/>
-        <v>4.1271051937884964E-3</v>
+        <v>4.0486773194933125E-3</v>
       </c>
       <c r="E50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="F50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="G50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="H50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="I50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="J50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="K50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="L50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="M50">
         <f t="shared" si="28"/>
-        <v>4.2742331373163871E-3</v>
+        <v>4.2298892872985883E-3</v>
       </c>
       <c r="N50">
         <f t="shared" si="28"/>
-        <v>4.5497654071773299E-3</v>
+        <v>4.5734348524800227E-3</v>
       </c>
       <c r="O50">
         <f t="shared" si="28"/>
-        <v>3.9586333932249912E-3</v>
+        <v>3.8431545210285555E-3</v>
       </c>
       <c r="P50">
         <f t="shared" si="28"/>
-        <v>4.1425122849424109E-3</v>
+        <v>4.067579012963206E-3</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51">
         <f t="shared" ref="B51:P51" si="29">B35/SUM($B$21:$P$36)</f>
-        <v>3.7449533562479119E-3</v>
+        <v>3.5856199677506582E-3</v>
       </c>
       <c r="C51">
         <f t="shared" si="29"/>
-        <v>4.4524917660046107E-3</v>
+        <v>4.4515386438839432E-3</v>
       </c>
       <c r="D51">
         <f t="shared" si="29"/>
-        <v>4.135253121188006E-3</v>
+        <v>4.0586711481547981E-3</v>
       </c>
       <c r="E51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="F51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="G51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="H51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="I51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="J51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="K51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="L51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="M51">
         <f t="shared" si="29"/>
-        <v>4.1047522800888832E-3</v>
+        <v>4.0212857285380071E-3</v>
       </c>
       <c r="N51">
         <f t="shared" si="29"/>
-        <v>4.3314157423496469E-3</v>
+        <v>4.3007438787805458E-3</v>
       </c>
       <c r="O51">
         <f t="shared" si="29"/>
-        <v>3.9232216226998866E-3</v>
+        <v>3.80022923146723E-3</v>
       </c>
       <c r="P51">
         <f t="shared" si="29"/>
-        <v>4.3872351805730771E-3</v>
+        <v>4.370135332073209E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Boltzmann_Test.xlsx
+++ b/Boltzmann_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation\2D_15-by-15_DQN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C390BD7C-4311-49BF-AFCF-9A0E0EE6792D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F031D7-DEE0-467C-997F-3E2099090250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{F28C24A4-B3E6-4C6B-9656-C7F37A5C0F9E}"/>
   </bookViews>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182307A-63CB-40A7-96D2-F57882C13B50}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,707 +432,707 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.52643525600433305</v>
+        <v>90.749458312988196</v>
       </c>
       <c r="C3">
-        <v>0.30526578426361001</v>
+        <v>156.856185913085</v>
       </c>
       <c r="D3">
-        <v>0.41102844476699801</v>
+        <v>219.97611999511699</v>
       </c>
       <c r="E3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="F3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="G3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="H3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="I3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="J3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="K3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="L3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="M3">
-        <v>0.21376261115074099</v>
+        <v>198.89884948730401</v>
       </c>
       <c r="N3">
-        <v>0.63530719280242898</v>
+        <v>184.71749877929599</v>
       </c>
       <c r="O3">
-        <v>-0.61399114131927401</v>
+        <v>138.85910034179599</v>
       </c>
       <c r="P3">
-        <v>9.2412076890468597E-2</v>
+        <v>75.366760253906193</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>0.63158160448074296</v>
+        <v>221.93360900878901</v>
       </c>
       <c r="C4">
-        <v>0.99064898490905695</v>
+        <v>399.75979614257801</v>
       </c>
       <c r="D4">
-        <v>1.6127072572708101</v>
+        <v>567.90863037109295</v>
       </c>
       <c r="E4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="F4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="G4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="H4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="I4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="J4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="K4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="L4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="M4">
-        <v>0.60953950881957997</v>
+        <v>524.37255859375</v>
       </c>
       <c r="N4">
-        <v>0.62808352708816495</v>
+        <v>497.74905395507801</v>
       </c>
       <c r="O4">
-        <v>-1.57024705410003</v>
+        <v>384.558990478515</v>
       </c>
       <c r="P4">
-        <v>-1.9727433919906601</v>
+        <v>213.93959045410099</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>-0.385287314653396</v>
+        <v>353.7705078125</v>
       </c>
       <c r="C5">
-        <v>2.10231590270996</v>
+        <v>643.20379638671795</v>
       </c>
       <c r="D5">
-        <v>0.97057700157165505</v>
+        <v>917.230712890625</v>
       </c>
       <c r="E5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="F5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="G5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="H5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="I5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="J5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="K5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="L5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="M5">
-        <v>0.95574867725372303</v>
+        <v>854.27990722656205</v>
       </c>
       <c r="N5">
-        <v>1.8149356842041</v>
+        <v>814.502685546875</v>
       </c>
       <c r="O5">
-        <v>0.168461829423904</v>
+        <v>633.07391357421795</v>
       </c>
       <c r="P5">
-        <v>-0.16522467136383001</v>
+        <v>352.94448852539</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C6">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D6">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M6">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N6">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O6">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P6">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C7">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D7">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M7">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N7">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O7">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P7">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C8">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D8">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M8">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N8">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O8">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P8">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C9">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D9">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M9">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N9">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O9">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P9">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C10">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D10">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M10">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N10">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O10">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P10">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C11">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D11">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M11">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N11">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O11">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P11">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C12">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D12">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M12">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N12">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O12">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P12">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C13">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D13">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M13">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N13">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O13">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P13">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>-0.26726645231246898</v>
+        <v>396.36114501953102</v>
       </c>
       <c r="C14">
-        <v>1.8632950782775799</v>
+        <v>728.64776611328102</v>
       </c>
       <c r="D14">
-        <v>1.1987957954406701</v>
+        <v>1046.90344238281</v>
       </c>
       <c r="E14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="F14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="G14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="H14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="I14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="J14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="K14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="L14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="M14">
-        <v>0.72788900136947599</v>
+        <v>980.591796875</v>
       </c>
       <c r="N14">
-        <v>1.60553991794586</v>
+        <v>942.91491699218705</v>
       </c>
       <c r="O14">
-        <v>-0.337360650300979</v>
+        <v>741.37451171875</v>
       </c>
       <c r="P14">
-        <v>-0.13308075070381101</v>
+        <v>419.94461059570301</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>-1.1591054201126001</v>
+        <v>299.92333984375</v>
       </c>
       <c r="C15">
-        <v>1.9636083841323799</v>
+        <v>530.69708251953102</v>
       </c>
       <c r="D15">
-        <v>1.42347240447998</v>
+        <v>750.62994384765602</v>
       </c>
       <c r="E15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="F15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="G15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="H15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="I15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="J15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="K15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="L15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="M15">
-        <v>0.90947520732879605</v>
+        <v>676.61590576171795</v>
       </c>
       <c r="N15">
-        <v>2.1929154396057098</v>
+        <v>659.95361328125</v>
       </c>
       <c r="O15">
-        <v>0.36260056495666498</v>
+        <v>524.41204833984295</v>
       </c>
       <c r="P15">
-        <v>0.220275998115539</v>
+        <v>302.35809326171801</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>-0.42377045750617898</v>
+        <v>169.500564575195</v>
       </c>
       <c r="C16">
-        <v>1.67986571788787</v>
+        <v>288.59329223632801</v>
       </c>
       <c r="D16">
-        <v>-0.14353212714195199</v>
+        <v>401.60464477539</v>
       </c>
       <c r="E16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="F16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="G16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="H16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="I16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="J16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="K16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="L16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="M16">
-        <v>0.206752508878707</v>
+        <v>348.980377197265</v>
       </c>
       <c r="N16">
-        <v>0.83146220445632901</v>
+        <v>345.36380004882801</v>
       </c>
       <c r="O16">
-        <v>-0.56030589342117298</v>
+        <v>277.32199096679602</v>
       </c>
       <c r="P16">
-        <v>-0.106270164251327</v>
+        <v>162.52287292480401</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>-1.1152029037475499</v>
+        <v>38.586761474609297</v>
       </c>
       <c r="C17">
-        <v>0.61534434556961004</v>
+        <v>46.657722473144503</v>
       </c>
       <c r="D17">
-        <v>-0.123809114098548</v>
+        <v>53.428932189941399</v>
       </c>
       <c r="E17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="F17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="G17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="H17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="I17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="J17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="K17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="L17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="M17">
-        <v>-0.197840571403503</v>
+        <v>22.854537963867099</v>
       </c>
       <c r="N17">
-        <v>0.33964997529983498</v>
+        <v>31.027217864990199</v>
       </c>
       <c r="O17">
-        <v>-0.65016293525695801</v>
+        <v>29.3899726867675</v>
       </c>
       <c r="P17">
-        <v>0.46769776940345698</v>
+        <v>22.102785110473601</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B19">
         <f>MAX(B3:P17)</f>
-        <v>2.1929154396057098</v>
+        <v>1046.90344238281</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1150,931 +1150,931 @@
       </c>
       <c r="B21">
         <f>EXP((B3-$B$19)/$B$1)</f>
-        <v>0.7118280945564468</v>
+        <v>1.2400811573644075E-52</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:P21" si="0">EXP((C3-$B$19)/$B$1)</f>
-        <v>0.78981526162015114</v>
+        <v>4.8103146510296563E-49</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.80032620805673294</v>
+        <v>1.2845569671717222E-45</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.78083290386012483</v>
+        <v>9.2158539720551111E-47</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.82308069701118647</v>
+        <v>1.5655800906750215E-47</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0.70407997908949871</v>
+        <v>5.0718817093581758E-50</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0.76907797219912077</v>
+        <v>1.8128943610158927E-53</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" ref="B22:P22" si="1">EXP((B4-$B$19)/$B$1)</f>
-        <v>0.82269747877112609</v>
+        <v>1.6406623183785902E-45</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.8604641665087448</v>
+        <v>7.3898509658692048E-36</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.93004154406784556</v>
+        <v>9.9288633910372966E-27</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.82043385158018101</v>
+        <v>4.2999664622606147E-29</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>0.82233782497647945</v>
+        <v>1.5422682715253219E-30</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>0.62475524639380109</v>
+        <v>1.105178499296488E-36</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>0.59410016021150036</v>
+        <v>6.0401738016326759E-46</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" ref="B23:P23" si="2">EXP((B5-$B$19)/$B$1)</f>
-        <v>0.72449867629552323</v>
+        <v>2.3551789515128356E-38</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>0.98873894365000359</v>
+        <v>1.2146018120341375E-22</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>0.85830796978483248</v>
+        <v>9.130217870167667E-8</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0.85671853466352632</v>
+        <v>3.492068061231394E-11</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.95385131934277667</v>
+        <v>2.4193807147663319E-13</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>0.77642385635476963</v>
+        <v>3.4238513314683512E-23</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.74470470085490537</v>
+        <v>2.1241342372536566E-38</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" ref="B24:P24" si="3">EXP((B6-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P24">
         <f t="shared" si="3"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" ref="B25:P25" si="4">EXP((B7-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="shared" ref="B26:P26" si="5">EXP((B8-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P26">
         <f t="shared" si="5"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="shared" ref="B27:P27" si="6">EXP((B9-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D27">
         <f t="shared" si="6"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="shared" ref="B28:P28" si="7">EXP((B10-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D28">
         <f t="shared" si="7"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P28">
         <f t="shared" si="7"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:P29" si="8">EXP((B11-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C29">
         <f t="shared" si="8"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D29">
         <f t="shared" si="8"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M29">
         <f t="shared" si="8"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N29">
         <f t="shared" si="8"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O29">
         <f t="shared" si="8"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P29">
         <f t="shared" si="8"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="shared" ref="B30:P30" si="9">EXP((B12-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C30">
         <f t="shared" si="9"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D30">
         <f t="shared" si="9"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O30">
         <f t="shared" si="9"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P30">
         <f t="shared" si="9"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="shared" ref="B31:P31" si="10">EXP((B13-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C31">
         <f t="shared" si="10"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D31">
         <f t="shared" si="10"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M31">
         <f t="shared" si="10"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O31">
         <f t="shared" si="10"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P31">
         <f t="shared" si="10"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="shared" ref="B32:P32" si="11">EXP((B14-$B$19)/$B$1)</f>
-        <v>0.7352661499864529</v>
+        <v>4.8320759439002205E-36</v>
       </c>
       <c r="C32">
         <f t="shared" si="11"/>
-        <v>0.95963474088427358</v>
+        <v>5.2834122064095113E-18</v>
       </c>
       <c r="D32">
         <f t="shared" si="11"/>
-        <v>0.88314581552162053</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="G32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="H32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="I32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="J32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="L32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="M32">
         <f t="shared" si="11"/>
-        <v>0.83266131445674019</v>
+        <v>2.5127673696384459E-4</v>
       </c>
       <c r="N32">
         <f t="shared" si="11"/>
-        <v>0.92920867679712227</v>
+        <v>2.2635737827974779E-6</v>
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
-        <v>0.72885205406529596</v>
+        <v>2.5930382245627452E-17</v>
       </c>
       <c r="P32">
         <f t="shared" si="11"/>
-        <v>0.74770293636391716</v>
+        <v>9.2130806258625431E-35</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="12">EXP((B15-$B$19)/$B$1)</f>
-        <v>0.65770248032952217</v>
+        <v>2.810819268205356E-41</v>
       </c>
       <c r="C33">
         <f t="shared" si="12"/>
-        <v>0.97174351584060492</v>
+        <v>9.4798900103650227E-29</v>
       </c>
       <c r="D33">
         <f t="shared" si="12"/>
-        <v>0.90830016266133329</v>
+        <v>8.2462558750394919E-17</v>
       </c>
       <c r="E33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="F33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="G33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="H33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="I33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="J33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="K33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="L33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="M33">
         <f t="shared" si="12"/>
-        <v>0.85177742117532929</v>
+        <v>7.9117173956707686E-21</v>
       </c>
       <c r="N33">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>9.8566209611897839E-22</v>
       </c>
       <c r="O33">
         <f t="shared" si="12"/>
-        <v>0.79549607968476255</v>
+        <v>4.3212445085708599E-29</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
-        <v>0.78146889608617087</v>
+        <v>3.8107277165504496E-41</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="shared" ref="B34:P34" si="13">EXP((B16-$B$19)/$B$1)</f>
-        <v>0.72102192201972648</v>
+        <v>2.3366650903143039E-48</v>
       </c>
       <c r="C34">
         <f t="shared" si="13"/>
-        <v>0.93788192707796403</v>
+        <v>6.8196294493518405E-42</v>
       </c>
       <c r="D34">
         <f t="shared" si="13"/>
-        <v>0.74672675854639203</v>
+        <v>9.306505268428701E-36</v>
       </c>
       <c r="E34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="F34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="G34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="H34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="I34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="J34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="K34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="L34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="M34">
         <f t="shared" si="13"/>
-        <v>0.78014898873439353</v>
+        <v>1.2941451813592124E-38</v>
       </c>
       <c r="N34">
         <f t="shared" si="13"/>
-        <v>0.84351157509457941</v>
+        <v>8.2347527181129724E-39</v>
       </c>
       <c r="O34">
         <f t="shared" si="13"/>
-        <v>0.70882070652143636</v>
+        <v>1.6667780953616966E-42</v>
       </c>
       <c r="P34">
         <f t="shared" si="13"/>
-        <v>0.75021293419883384</v>
+        <v>9.7678694774283167E-49</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="shared" ref="B35:P35" si="14">EXP((B17-$B$19)/$B$1)</f>
-        <v>0.66132175142887184</v>
+        <v>1.8268533411807718E-55</v>
       </c>
       <c r="C35">
         <f t="shared" si="14"/>
-        <v>0.82102937818404953</v>
+        <v>5.0101463485839283E-55</v>
       </c>
       <c r="D35">
         <f t="shared" si="14"/>
-        <v>0.74856999244550482</v>
+        <v>1.1679864082544682E-54</v>
       </c>
       <c r="E35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="F35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="G35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="H35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="I35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="J35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="K35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="L35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="M35">
         <f t="shared" si="14"/>
-        <v>0.74167472986853145</v>
+        <v>2.5565332852351419E-56</v>
       </c>
       <c r="N35">
         <f t="shared" si="14"/>
-        <v>0.79321721207012552</v>
+        <v>7.1010108200798136E-56</v>
       </c>
       <c r="O35">
         <f t="shared" si="14"/>
-        <v>0.70090368577506446</v>
+        <v>5.78681176971472E-56</v>
       </c>
       <c r="P35">
         <f t="shared" si="14"/>
-        <v>0.80601557827692871</v>
+        <v>2.3272400757196502E-56</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2083,931 +2083,931 @@
       </c>
       <c r="B37">
         <f t="shared" ref="B37:P37" si="15">B21/SUM($B$21:$P$36)</f>
-        <v>3.8594602762313883E-3</v>
+        <v>1.3747558293410846E-53</v>
       </c>
       <c r="C37">
         <f t="shared" si="15"/>
-        <v>4.2822988458803418E-3</v>
+        <v>5.3327220304860756E-50</v>
       </c>
       <c r="D37">
         <f t="shared" si="15"/>
-        <v>4.3392881394300163E-3</v>
+        <v>1.4240617787413818E-46</v>
       </c>
       <c r="E37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="F37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="G37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="H37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="I37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="J37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="K37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="L37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="M37">
         <f t="shared" si="15"/>
-        <v>4.2335974062675625E-3</v>
+        <v>1.0216709523565406E-47</v>
       </c>
       <c r="N37">
         <f t="shared" si="15"/>
-        <v>4.4626606880793949E-3</v>
+        <v>1.7356044345760207E-48</v>
       </c>
       <c r="O37">
         <f t="shared" si="15"/>
-        <v>3.8174507740931316E-3</v>
+        <v>5.6226956633126425E-51</v>
       </c>
       <c r="P37">
         <f t="shared" si="15"/>
-        <v>4.1698633500503388E-3</v>
+        <v>2.009777405281388E-54</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38">
         <f t="shared" ref="B38:P38" si="16">B22/SUM($B$21:$P$36)</f>
-        <v>4.460582917356448E-3</v>
+        <v>1.8188407047204462E-46</v>
       </c>
       <c r="C38">
         <f t="shared" si="16"/>
-        <v>4.6653500966836415E-3</v>
+        <v>8.1923998546049697E-37</v>
       </c>
       <c r="D38">
         <f t="shared" si="16"/>
-        <v>5.0425916341661284E-3</v>
+        <v>1.1007152833908211E-27</v>
       </c>
       <c r="E38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="F38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="G38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="H38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="I38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="J38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="K38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="L38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="M38">
         <f t="shared" si="16"/>
-        <v>4.4483097585833404E-3</v>
+        <v>4.7669492636495474E-30</v>
       </c>
       <c r="N38">
         <f t="shared" si="16"/>
-        <v>4.4586329106845431E-3</v>
+        <v>1.7097609169334272E-31</v>
       </c>
       <c r="O38">
         <f t="shared" si="16"/>
-        <v>3.3873600582265623E-3</v>
+        <v>1.225202540452605E-37</v>
       </c>
       <c r="P38">
         <f t="shared" si="16"/>
-        <v>3.2211512666801122E-3</v>
+        <v>6.6961457278136002E-47</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39">
         <f t="shared" ref="B39:P39" si="17">B23/SUM($B$21:$P$36)</f>
-        <v>3.9281588950027925E-3</v>
+        <v>2.6109549149308162E-39</v>
       </c>
       <c r="C39">
         <f t="shared" si="17"/>
-        <v>5.3608430262337328E-3</v>
+        <v>1.3465093889266287E-23</v>
       </c>
       <c r="D39">
         <f t="shared" si="17"/>
-        <v>4.6536594150888592E-3</v>
+        <v>1.0121773212685541E-8</v>
       </c>
       <c r="E39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="F39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="G39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="H39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="I39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="J39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="K39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="L39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="M39">
         <f t="shared" si="17"/>
-        <v>4.6450416578533143E-3</v>
+        <v>3.871311885616325E-12</v>
       </c>
       <c r="N39">
         <f t="shared" si="17"/>
-        <v>5.1716858390202548E-3</v>
+        <v>2.6821290858812935E-14</v>
       </c>
       <c r="O39">
         <f t="shared" si="17"/>
-        <v>4.2096919945072428E-3</v>
+        <v>3.795686716776855E-24</v>
       </c>
       <c r="P39">
         <f t="shared" si="17"/>
-        <v>4.0377139262299383E-3</v>
+        <v>2.3548183984778745E-39</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40">
         <f t="shared" ref="B40:P40" si="18">B24/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C40">
         <f t="shared" si="18"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D40">
         <f t="shared" si="18"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M40">
         <f t="shared" si="18"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N40">
         <f t="shared" si="18"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O40">
         <f t="shared" si="18"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P40">
         <f t="shared" si="18"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41">
         <f t="shared" ref="B41:P41" si="19">B25/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C41">
         <f t="shared" si="19"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D41">
         <f t="shared" si="19"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M41">
         <f t="shared" si="19"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N41">
         <f t="shared" si="19"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O41">
         <f t="shared" si="19"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P41">
         <f t="shared" si="19"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42">
         <f t="shared" ref="B42:P42" si="20">B26/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C42">
         <f t="shared" si="20"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D42">
         <f t="shared" si="20"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M42">
         <f t="shared" si="20"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N42">
         <f t="shared" si="20"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O42">
         <f t="shared" si="20"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P42">
         <f t="shared" si="20"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43">
         <f t="shared" ref="B43:P43" si="21">B27/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C43">
         <f t="shared" si="21"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D43">
         <f t="shared" si="21"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M43">
         <f t="shared" si="21"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N43">
         <f t="shared" si="21"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O43">
         <f t="shared" si="21"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P43">
         <f t="shared" si="21"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44">
         <f t="shared" ref="B44:P44" si="22">B28/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C44">
         <f t="shared" si="22"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D44">
         <f t="shared" si="22"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M44">
         <f t="shared" si="22"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N44">
         <f t="shared" si="22"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O44">
         <f t="shared" si="22"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P44">
         <f t="shared" si="22"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45">
         <f t="shared" ref="B45:P45" si="23">B29/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C45">
         <f t="shared" si="23"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D45">
         <f t="shared" si="23"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M45">
         <f t="shared" si="23"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N45">
         <f t="shared" si="23"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O45">
         <f t="shared" si="23"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P45">
         <f t="shared" si="23"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46">
         <f t="shared" ref="B46:P46" si="24">B30/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C46">
         <f t="shared" si="24"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D46">
         <f t="shared" si="24"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M46">
         <f t="shared" si="24"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N46">
         <f t="shared" si="24"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O46">
         <f t="shared" si="24"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P46">
         <f t="shared" si="24"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="shared" ref="B47:P47" si="25">B31/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C47">
         <f t="shared" si="25"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D47">
         <f t="shared" si="25"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M47">
         <f t="shared" si="25"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N47">
         <f t="shared" si="25"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O47">
         <f t="shared" si="25"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P47">
         <f t="shared" si="25"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="shared" ref="B48:P48" si="26">B32/SUM($B$21:$P$36)</f>
-        <v>3.9865390535035669E-3</v>
+        <v>5.356846632372124E-37</v>
       </c>
       <c r="C48">
         <f t="shared" si="26"/>
-        <v>5.2030429684603577E-3</v>
+        <v>5.8571986893265172E-19</v>
       </c>
       <c r="D48">
         <f t="shared" si="26"/>
-        <v>4.7883277145018364E-3</v>
+        <v>0.11086014985203924</v>
       </c>
       <c r="E48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="F48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="G48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="H48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="I48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="J48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="K48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="L48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="M48">
         <f t="shared" si="26"/>
-        <v>4.5146058314864202E-3</v>
+        <v>2.7856576714143257E-5</v>
       </c>
       <c r="N48">
         <f t="shared" si="26"/>
-        <v>5.0380759116604957E-3</v>
+        <v>2.5094012876207574E-7</v>
       </c>
       <c r="O48">
         <f t="shared" si="26"/>
-        <v>3.9517624710604868E-3</v>
+        <v>2.8746460614709171E-18</v>
       </c>
       <c r="P48">
         <f t="shared" si="26"/>
-        <v>4.0539700573580971E-3</v>
+        <v>1.021363498782041E-35</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49">
         <f t="shared" ref="B49:P49" si="27">B33/SUM($B$21:$P$36)</f>
-        <v>3.5659966441649875E-3</v>
+        <v>3.1160784528024503E-42</v>
       </c>
       <c r="C49">
         <f t="shared" si="27"/>
-        <v>5.2686955274070611E-3</v>
+        <v>1.0509420271299162E-29</v>
       </c>
       <c r="D49">
         <f t="shared" si="27"/>
-        <v>4.9247120526625127E-3</v>
+        <v>9.141811620251371E-18</v>
       </c>
       <c r="E49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="F49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="G49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="H49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="I49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="J49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="K49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="L49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="M49">
         <f t="shared" si="27"/>
-        <v>4.6182514378916668E-3</v>
+        <v>8.7709417607104706E-22</v>
       </c>
       <c r="N49">
         <f t="shared" si="27"/>
-        <v>5.4218993402280488E-3</v>
+        <v>1.0927064767922504E-22</v>
       </c>
       <c r="O49">
         <f t="shared" si="27"/>
-        <v>4.3130996695968137E-3</v>
+        <v>4.7905381376746716E-30</v>
       </c>
       <c r="P49">
         <f t="shared" si="27"/>
-        <v>4.2370456920983518E-3</v>
+        <v>4.2245784570210215E-42</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50">
         <f t="shared" ref="B50:P50" si="28">B34/SUM($B$21:$P$36)</f>
-        <v>3.9093082832887148E-3</v>
+        <v>2.5904304206627252E-49</v>
       </c>
       <c r="C50">
         <f t="shared" si="28"/>
-        <v>5.0851014016358243E-3</v>
+        <v>7.5602514269052493E-43</v>
       </c>
       <c r="D50">
         <f t="shared" si="28"/>
-        <v>4.0486773194933125E-3</v>
+        <v>1.0317205686567984E-36</v>
       </c>
       <c r="E50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="F50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="G50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="H50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="I50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="J50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="K50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="L50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="M50">
         <f t="shared" si="28"/>
-        <v>4.2298892872985883E-3</v>
+        <v>1.4346912873577678E-39</v>
       </c>
       <c r="N50">
         <f t="shared" si="28"/>
-        <v>4.5734348524800227E-3</v>
+        <v>9.1290592032449157E-40</v>
       </c>
       <c r="O50">
         <f t="shared" si="28"/>
-        <v>3.8431545210285555E-3</v>
+        <v>1.8477926942189422E-43</v>
       </c>
       <c r="P50">
         <f t="shared" si="28"/>
-        <v>4.067579012963206E-3</v>
+        <v>1.0828674740028634E-49</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51">
         <f t="shared" ref="B51:P51" si="29">B35/SUM($B$21:$P$36)</f>
-        <v>3.5856199677506582E-3</v>
+        <v>2.0252523516099893E-56</v>
       </c>
       <c r="C51">
         <f t="shared" si="29"/>
-        <v>4.4515386438839432E-3</v>
+        <v>5.5542557498466156E-56</v>
       </c>
       <c r="D51">
         <f t="shared" si="29"/>
-        <v>4.0586711481547981E-3</v>
+        <v>1.2948314824423543E-55</v>
       </c>
       <c r="E51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="F51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="G51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="H51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="I51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="J51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="K51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="L51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="M51">
         <f t="shared" si="29"/>
-        <v>4.0212857285380071E-3</v>
+        <v>2.8341766310289402E-57</v>
       </c>
       <c r="N51">
         <f t="shared" si="29"/>
-        <v>4.3007438787805458E-3</v>
+        <v>7.872191236150002E-57</v>
       </c>
       <c r="O51">
         <f t="shared" si="29"/>
-        <v>3.80022923146723E-3</v>
+        <v>6.4152681995611827E-57</v>
       </c>
       <c r="P51">
         <f t="shared" si="29"/>
-        <v>4.370135332073209E-3</v>
+        <v>2.5799818353595156E-57</v>
       </c>
     </row>
   </sheetData>
